--- a/Excel/HopepitalSales.xlsx
+++ b/Excel/HopepitalSales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luong\UTE\hk2\DataWarehouse\Final-Project\HopepitalDW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336AA53C-FA32-47F9-92EE-F6C792DC10DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A413DB-CD30-42BA-B9B6-C60843CA75D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D2F5F7B-7F94-4476-B20E-DECFB2D64389}"/>
   </bookViews>
@@ -20,10 +20,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="410" r:id="rId5"/>
-    <pivotCache cacheId="425" r:id="rId6"/>
-    <pivotCache cacheId="434" r:id="rId7"/>
-    <pivotCache cacheId="440" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -411,9 +411,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1493,6 +1492,160 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1526,6 +1679,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1541,6 +1699,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1556,6 +1719,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1571,6 +1739,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1586,6 +1759,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1601,6 +1779,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1618,6 +1801,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1635,6 +1823,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1652,6 +1845,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1669,6 +1867,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1686,6 +1889,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-5A89-45A3-8710-C5F1D926F623}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2602,6 +2810,244 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2635,6 +3081,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2650,6 +3101,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2665,6 +3121,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2680,6 +3141,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2695,6 +3161,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2710,6 +3181,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2727,6 +3203,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2744,6 +3225,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2761,6 +3247,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2778,6 +3269,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2795,6 +3291,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2812,6 +3313,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2830,6 +3336,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2848,6 +3359,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -2866,6 +3382,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -2884,6 +3405,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -2902,6 +3428,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-2512-4F39-955B-7F8DAFF96F37}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5959,7 +6490,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC095F2D-D29F-4F7F-9BE1-A0BAA3EA4AC0}" name="PivotTable6" cacheId="410" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Thời gian" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC095F2D-D29F-4F7F-9BE1-A0BAA3EA4AC0}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Thời gian" fieldListSortAscending="1">
   <location ref="A1:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -6120,7 +6651,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FF80DB8-C347-46A4-AF45-C19C6578F017}" name="PivotTable7" cacheId="434" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Khoa" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FF80DB8-C347-46A4-AF45-C19C6578F017}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Khoa" fieldListSortAscending="1">
   <location ref="A1:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -6188,12 +6719,144 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -6247,7 +6910,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE0AA911-5418-4123-A843-94241D4397D2}" name="PivotTable8" cacheId="440" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Loại sản phẩm" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE0AA911-5418-4123-A843-94241D4397D2}" name="PivotTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Loại sản phẩm" fieldListSortAscending="1">
   <location ref="A1:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -6402,7 +7065,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{589B3929-0F7D-46ED-AE0B-0792B00F19E2}" name="PivotTable10" cacheId="425" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Địa chỉ bệnh nhân" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{589B3929-0F7D-46ED-AE0B-0792B00F19E2}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Địa chỉ bệnh nhân" fieldListSortAscending="1">
   <location ref="A1:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -6495,12 +7158,216 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="18">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -6873,7 +7740,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6883,7 +7750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
@@ -6891,136 +7758,131 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>323824964</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>267212817</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>211867747</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>365064333</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>218147014</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>404936720</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>150555487</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>371370472</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>440615692</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>171348630</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>112537363</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>139158622</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>3176639861</v>
       </c>
     </row>
@@ -7080,7 +7942,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
@@ -7088,98 +7950,98 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1024739</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>46220750</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2400000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>2792000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>48160000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>7950000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>1137983855</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>1101912930</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>9700046</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>691907590</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>126587951</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3176639861</v>
       </c>
     </row>
@@ -7243,7 +8105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474341E1-E43A-47C2-9597-120B13D3029E}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A44"/>
     </sheetView>
   </sheetViews>
@@ -7254,7 +8116,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
@@ -7262,154 +8124,154 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>377700000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>861980000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>24500000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>293000000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>254988930</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>5579097</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>3460000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>12187413</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>480924671</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>3070000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>52227</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>288310000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>149554210</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>8000000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>217019000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>112795000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>83519313</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>3176639861</v>
       </c>
     </row>
@@ -7499,7 +8361,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B1" t="s">
@@ -7507,234 +8369,234 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>34290050</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>3329502</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>628343196</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>7137480</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>31213812</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>1500000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>3000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>10790123</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>83232836</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>30102832</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>1027944</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>121723190</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>13107844</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>3336520</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>4200000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>2199504532</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>800000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>3176639861</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>103</v>
       </c>
     </row>
